--- a/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/50_Wizard/50_Wizard_energy-base.xlsx
+++ b/forcaster-ATM/forcaster-ATM-app/src/baf-configuration/50_Wizard/50_Wizard_energy-base.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Wizard" sheetId="1" r:id="rId1"/>
     <sheet name="Wizards Labels" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="117">
   <si>
     <t>Action</t>
   </si>
@@ -351,6 +351,72 @@
   </si>
   <si>
     <t>Forecast Workflow</t>
+  </si>
+  <si>
+    <t>prelevatoMonteCombo</t>
+  </si>
+  <si>
+    <t>Previsione a monte prelevato</t>
+  </si>
+  <si>
+    <t>prelevatoValleCombo</t>
+  </si>
+  <si>
+    <t>Previsione a valle prelevato</t>
+  </si>
+  <si>
+    <t>versatoValleCombo</t>
+  </si>
+  <si>
+    <t>Previsione a valle versato</t>
+  </si>
+  <si>
+    <t>Stima</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>forecastLength</t>
+  </si>
+  <si>
+    <t>Finestra previsone (offset)</t>
+  </si>
+  <si>
+    <t>exportStartDate</t>
+  </si>
+  <si>
+    <t>exportEndDate</t>
+  </si>
+  <si>
+    <t>Data inzio esportazione</t>
+  </si>
+  <si>
+    <t>Export start date</t>
+  </si>
+  <si>
+    <t>Data fine esportazione</t>
+  </si>
+  <si>
+    <t>Export end date</t>
+  </si>
+  <si>
+    <t>Finestra previsone (length)</t>
+  </si>
+  <si>
+    <t>Forecast prelevato topdown</t>
+  </si>
+  <si>
+    <t>Forecast prelevato BottomUp</t>
+  </si>
+  <si>
+    <t>Forecast versato BottomUp</t>
+  </si>
+  <si>
+    <t>Versione</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -962,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="135" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1539,6 +1605,159 @@
         <v>94</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
